--- a/Benchmark_model/Benchmark model on crawl dataset.xlsx
+++ b/Benchmark_model/Benchmark model on crawl dataset.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C88A29E-CA53-463E-A26C-EE6AEEC05661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFF94C7-CB77-40BA-A47C-3E2E38A60434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0BB0E8FD-7117-489A-8F6E-F3EA7E0AA861}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="10950" xr2:uid="{0BB0E8FD-7117-489A-8F6E-F3EA7E0AA861}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,21 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
-    <t>Tên tập Dataset</t>
-  </si>
-  <si>
-    <t>Số lớp</t>
-  </si>
-  <si>
-    <t>Mô hình</t>
-  </si>
-  <si>
-    <t>Số vòng lặp mong muốn</t>
-  </si>
-  <si>
-    <t>Số vòng lặp thực tế</t>
-  </si>
-  <si>
     <t>patient</t>
   </si>
   <si>
@@ -68,7 +53,7 @@
     <t>accuracy</t>
   </si>
   <si>
-    <t>Thời gian trung bình 1 epoch (s)</t>
+    <t>Dataset_real</t>
   </si>
   <si>
     <t>Resnet50</t>
@@ -86,9 +71,6 @@
     <t>Densenet121</t>
   </si>
   <si>
-    <t>Dataset_real</t>
-  </si>
-  <si>
     <t>Resnet152</t>
   </si>
   <si>
@@ -102,6 +84,24 @@
   </si>
   <si>
     <t>ViT-B/16(pytorch)</t>
+  </si>
+  <si>
+    <t>Dataset's name</t>
+  </si>
+  <si>
+    <t>num of classes</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>The desired num of epochs</t>
+  </si>
+  <si>
+    <t>The actual num of epochs</t>
+  </si>
+  <si>
+    <t>The average time per epoch(s)</t>
   </si>
 </sst>
 </file>
@@ -151,13 +151,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,224 +498,400 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="7" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>200</v>
       </c>
+      <c r="E2">
+        <v>56</v>
+      </c>
       <c r="F2">
         <v>50</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="G2">
+        <v>0.9889</v>
+      </c>
+      <c r="H2">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="I2">
+        <v>0.9889</v>
+      </c>
+      <c r="J2">
+        <v>0.98892500000000005</v>
+      </c>
+      <c r="K2" s="2">
+        <v>204</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>200</v>
       </c>
+      <c r="E3">
+        <v>57</v>
+      </c>
       <c r="F3">
         <v>50</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="G3">
+        <v>0.9909</v>
+      </c>
+      <c r="H3">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="I3">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="J3">
+        <v>0.99150099999999997</v>
+      </c>
+      <c r="K3" s="2">
+        <v>293</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>200</v>
       </c>
+      <c r="E4">
+        <v>61</v>
+      </c>
       <c r="F4">
         <v>50</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="G4">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="H4">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="I4">
+        <v>0.9889</v>
+      </c>
+      <c r="J4">
+        <v>0.98865499999999995</v>
+      </c>
+      <c r="K4" s="2">
+        <v>148</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>200</v>
       </c>
+      <c r="E5">
+        <v>57</v>
+      </c>
       <c r="F5">
         <v>50</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="G5">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="H5">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="I5">
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="J5">
+        <v>0.92247699999999999</v>
+      </c>
+      <c r="K5" s="2">
+        <v>125</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>200</v>
       </c>
+      <c r="E6">
+        <v>54</v>
+      </c>
       <c r="F6">
         <v>50</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="G6">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="J6">
+        <v>0.99031000000000002</v>
+      </c>
+      <c r="K6" s="2">
+        <v>172</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>200</v>
       </c>
+      <c r="E7">
+        <v>58</v>
+      </c>
       <c r="F7">
         <v>50</v>
       </c>
+      <c r="G7">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="H7">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="I7">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="J7">
+        <v>0.99054600000000004</v>
+      </c>
+      <c r="K7" s="2">
+        <v>368</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>200</v>
       </c>
+      <c r="E8">
+        <v>60</v>
+      </c>
       <c r="F8">
         <v>50</v>
       </c>
+      <c r="G8" s="4">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.98321899999999995</v>
+      </c>
+      <c r="K8" s="2">
+        <v>283</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>200</v>
       </c>
+      <c r="E9">
+        <v>120</v>
+      </c>
       <c r="F9">
         <v>50</v>
       </c>
+      <c r="G9">
+        <v>0.96981799999999996</v>
+      </c>
+      <c r="H9">
+        <v>0.96882199999999996</v>
+      </c>
+      <c r="I9">
+        <v>0.96931500000000004</v>
+      </c>
+      <c r="J9">
+        <v>0.97028199999999998</v>
+      </c>
+      <c r="K9" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>200</v>
       </c>
+      <c r="E10">
+        <v>67</v>
+      </c>
       <c r="F10">
         <v>50</v>
       </c>
+      <c r="G10">
+        <v>0.89549599999999996</v>
+      </c>
+      <c r="H10">
+        <v>0.88817299999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.89153300000000002</v>
+      </c>
+      <c r="J10">
+        <v>0.89822999999999997</v>
+      </c>
+      <c r="K10" s="2">
+        <v>265</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>200</v>
       </c>
+      <c r="E11">
+        <v>55</v>
+      </c>
       <c r="F11">
         <v>50</v>
+      </c>
+      <c r="G11">
+        <v>0.99085900000000005</v>
+      </c>
+      <c r="H11">
+        <v>0.991178</v>
+      </c>
+      <c r="I11">
+        <v>0.99100699999999997</v>
+      </c>
+      <c r="J11">
+        <v>0.99028400000000005</v>
+      </c>
+      <c r="K11" s="2">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
